--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/country-codes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97B20A-5DD9-E041-B0DF-74C6E806BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="10460" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$737</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5898" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3423,11 +3433,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3446,30 +3461,365 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3851,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3879,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3907,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3585,7 +3935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3617,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3713,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +4091,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3773,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +4151,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3829,7 +4179,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3893,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3921,7 +4271,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +4331,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4009,7 +4359,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4041,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4069,7 +4419,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4101,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4161,7 +4511,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4221,7 +4571,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4249,7 +4599,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4281,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4313,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4345,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4373,7 +4723,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4437,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4469,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4501,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4533,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4565,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4597,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4625,7 +4975,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4653,7 +5003,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4672,8 +5022,8 @@
       <c r="F40" t="s">
         <v>738</v>
       </c>
-      <c r="G40" t="s">
-        <v>738</v>
+      <c r="G40" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H40" t="s">
         <v>1072</v>
@@ -4685,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4717,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4749,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4777,7 +5127,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4796,8 +5146,8 @@
       <c r="F44" t="s">
         <v>738</v>
       </c>
-      <c r="G44" t="s">
-        <v>738</v>
+      <c r="G44" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="H44" t="s">
         <v>1075</v>
@@ -4809,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4841,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4873,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4905,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4933,7 +5283,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +5311,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4993,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5021,7 +5371,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5053,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5085,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5117,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5145,7 +5495,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5173,7 +5523,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5205,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5233,7 +5583,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5265,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5297,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5329,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5361,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5389,7 +5739,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5417,7 +5767,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5449,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5481,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5513,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5541,7 +5891,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5569,7 +5919,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5601,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5629,7 +5979,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5657,7 +6007,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5689,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5717,7 +6067,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5745,7 +6095,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5777,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5809,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5841,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5869,7 +6219,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5901,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5933,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5961,7 +6311,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5989,7 +6339,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6017,7 +6367,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6045,7 +6395,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6077,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6105,7 +6455,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6133,7 +6483,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6161,7 +6511,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6189,7 +6539,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6217,7 +6567,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6245,7 +6595,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6273,7 +6623,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6301,7 +6651,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6329,7 +6679,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6707,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6385,7 +6735,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6413,7 +6763,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6445,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6477,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6505,7 +6855,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6537,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6565,7 +6915,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6597,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6625,7 +6975,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6653,7 +7003,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6681,7 +7031,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6709,7 +7059,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6737,7 +7087,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6765,7 +7115,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6793,7 +7143,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6821,7 +7171,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6849,7 +7199,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6877,7 +7227,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6909,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6937,7 +7287,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6965,7 +7315,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6997,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7025,7 +7375,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7057,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7085,7 +7435,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7117,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7145,7 +7495,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7173,7 +7523,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7201,7 +7551,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7229,7 +7579,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7257,7 +7607,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7285,7 +7635,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7313,7 +7663,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7341,7 +7691,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7369,7 +7719,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7397,7 +7747,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7429,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7461,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7493,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7521,7 +7871,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7549,7 +7899,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7577,7 +7927,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7605,7 +7955,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7633,7 +7983,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7661,7 +8011,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7689,7 +8039,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7717,7 +8067,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7745,7 +8095,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7773,7 +8123,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7801,7 +8151,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7829,7 +8179,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7857,7 +8207,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7885,7 +8235,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7917,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7949,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7977,7 +8327,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -8005,7 +8355,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8037,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -8065,7 +8415,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -8093,7 +8443,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -8121,7 +8471,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -8149,7 +8499,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8181,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -8209,7 +8559,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -8237,7 +8587,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -8265,7 +8615,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -8293,7 +8643,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -8321,7 +8671,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -8349,7 +8699,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -8377,7 +8727,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -8405,7 +8755,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8437,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8469,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8497,7 +8847,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -8529,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8561,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -8589,7 +8939,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8608,8 +8958,8 @@
       <c r="F174" t="s">
         <v>738</v>
       </c>
-      <c r="G174" t="s">
-        <v>738</v>
+      <c r="G174" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H174" t="s">
         <v>943</v>
@@ -8621,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -8653,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -8685,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8713,7 +9063,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8741,7 +9091,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8760,8 +9110,8 @@
       <c r="F179" t="s">
         <v>738</v>
       </c>
-      <c r="G179" t="s">
-        <v>738</v>
+      <c r="G179" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H179" t="s">
         <v>1072</v>
@@ -8773,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8805,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8837,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8865,7 +9215,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8893,7 +9243,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8925,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8957,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8985,7 +9335,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -9017,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -9045,7 +9395,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -9073,7 +9423,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9105,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -9133,7 +9483,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -9165,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -9193,7 +9543,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -9221,7 +9571,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -9249,7 +9599,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -9277,7 +9627,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -9305,7 +9655,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -9333,7 +9683,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -9361,7 +9711,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -9389,7 +9739,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -9417,7 +9767,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -9445,7 +9795,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -9473,7 +9823,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -9505,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -9533,7 +9883,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -9561,7 +9911,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -9593,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -9621,7 +9971,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9649,7 +9999,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9677,7 +10027,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -9709,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -9737,7 +10087,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -9769,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -9801,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9829,7 +10179,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -9857,7 +10207,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -9885,7 +10235,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -9913,7 +10263,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9941,7 +10291,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9969,7 +10319,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9997,7 +10347,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -10025,7 +10375,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -10057,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -10089,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -10117,7 +10467,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -10145,7 +10495,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -10173,7 +10523,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -10201,7 +10551,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -10229,7 +10579,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -10257,7 +10607,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10289,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10321,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10353,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -10381,7 +10731,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -10409,7 +10759,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -10441,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -10473,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -10505,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -10537,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -10565,7 +10915,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -10593,7 +10943,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -10621,7 +10971,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -10649,7 +10999,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -10677,7 +11027,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -10705,7 +11055,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -10733,7 +11083,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -10761,7 +11111,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -10789,7 +11139,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -10817,7 +11167,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10836,8 +11186,8 @@
       <c r="F250" t="s">
         <v>963</v>
       </c>
-      <c r="G250" t="s">
-        <v>738</v>
+      <c r="G250" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H250" t="s">
         <v>943</v>
@@ -10849,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -10877,7 +11227,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -10905,7 +11255,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -10933,7 +11283,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -10961,7 +11311,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -10989,7 +11339,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -11017,7 +11367,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -11045,7 +11395,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -11077,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -11105,7 +11455,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -11137,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -11169,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -11197,7 +11547,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -11225,7 +11575,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -11253,7 +11603,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -11281,7 +11631,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -11309,7 +11659,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -11337,7 +11687,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -11365,7 +11715,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -11393,7 +11743,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -11421,7 +11771,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -11449,7 +11799,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -11477,7 +11827,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -11505,7 +11855,7 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -11533,7 +11883,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -11561,7 +11911,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11593,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -11621,7 +11971,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -11653,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -11685,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -11717,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -11745,7 +12095,7 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -11773,7 +12123,7 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -11801,7 +12151,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -11833,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -11865,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -11893,7 +12243,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -11925,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -11953,7 +12303,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -11985,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -12004,8 +12354,8 @@
       <c r="F290" t="s">
         <v>738</v>
       </c>
-      <c r="G290" t="s">
-        <v>738</v>
+      <c r="G290" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H290" t="s">
         <v>943</v>
@@ -12017,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -12045,7 +12395,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -12073,7 +12423,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -12105,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -12133,7 +12483,7 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -12165,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -12197,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -12229,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12261,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -12293,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -12321,7 +12671,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -12349,7 +12699,7 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -12377,7 +12727,7 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -12405,7 +12755,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -12433,7 +12783,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12465,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -12493,7 +12843,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -12525,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -12553,7 +12903,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -12581,7 +12931,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -12609,7 +12959,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -12637,7 +12987,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -12665,7 +13015,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -12693,7 +13043,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -12725,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -12757,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -12789,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -12821,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -12853,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -12881,7 +13231,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -12909,7 +13259,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -12941,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -12969,7 +13319,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -13001,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -13029,7 +13379,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -13061,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -13093,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -13125,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -13153,7 +13503,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -13185,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -13217,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -13245,7 +13595,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -13273,7 +13623,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -13305,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -13337,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -13369,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -13401,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -13433,7 +13783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -13461,7 +13811,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -13489,7 +13839,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -13521,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -13553,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -13585,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -13617,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -13649,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -13681,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -13713,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -13745,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -13777,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -13809,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -13837,7 +14187,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -13869,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -13897,7 +14247,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -13929,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -13957,7 +14307,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -13989,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -14017,7 +14367,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -14049,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -14077,7 +14427,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -14105,7 +14455,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -14137,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -14165,7 +14515,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -14193,7 +14543,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -14225,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -14257,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -14285,7 +14635,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -14317,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -14345,7 +14695,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -14373,7 +14723,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -14401,7 +14751,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -14429,7 +14779,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -14457,7 +14807,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -14485,7 +14835,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -14513,7 +14863,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -14545,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -14573,7 +14923,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -14601,7 +14951,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -14629,7 +14979,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -14657,7 +15007,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -14685,7 +15035,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -14713,7 +15063,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -14741,7 +15091,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -14769,7 +15119,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -14797,7 +15147,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -14825,7 +15175,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -14853,7 +15203,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -14881,7 +15231,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -14913,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -14941,7 +15291,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -14969,7 +15319,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -14997,7 +15347,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -15025,7 +15375,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -15053,7 +15403,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -15081,7 +15431,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -15109,7 +15459,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -15137,7 +15487,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -15165,7 +15515,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -15193,7 +15543,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -15221,7 +15571,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -15249,7 +15599,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -15277,7 +15627,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -15309,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -15337,7 +15687,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -15365,7 +15715,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -15393,7 +15743,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -15425,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -15457,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -15476,8 +15826,8 @@
       <c r="F407" t="s">
         <v>738</v>
       </c>
-      <c r="G407" t="s">
-        <v>738</v>
+      <c r="G407" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H407" t="s">
         <v>1079</v>
@@ -15489,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -15521,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -15549,7 +15899,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -15577,7 +15927,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -15609,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -15641,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -15669,7 +16019,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -15697,7 +16047,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -15725,7 +16075,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -15753,7 +16103,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -15781,7 +16131,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -15813,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -15845,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -15877,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -15905,7 +16255,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -15933,7 +16283,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -15965,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -15993,7 +16343,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -16025,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -16053,7 +16403,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -16085,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -16113,7 +16463,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -16141,7 +16491,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -16169,7 +16519,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -16197,7 +16547,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -16225,7 +16575,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -16253,7 +16603,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -16281,7 +16631,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -16309,7 +16659,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -16337,7 +16687,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -16365,7 +16715,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -16393,7 +16743,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -16421,7 +16771,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -16449,7 +16799,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -16477,7 +16827,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -16505,7 +16855,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -16533,7 +16883,7 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -16561,7 +16911,7 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -16589,7 +16939,7 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -16617,7 +16967,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -16645,7 +16995,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -16673,7 +17023,7 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -16701,7 +17051,7 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -16729,7 +17079,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -16757,7 +17107,7 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -16785,7 +17135,7 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -16813,7 +17163,7 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -16841,7 +17191,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -16869,7 +17219,7 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -16897,7 +17247,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -16925,7 +17275,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -16953,7 +17303,7 @@
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -16981,7 +17331,7 @@
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -17009,7 +17359,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -17037,7 +17387,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -17065,7 +17415,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -17093,7 +17443,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -17121,7 +17471,7 @@
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -17149,7 +17499,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -17177,7 +17527,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -17209,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -17237,7 +17587,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -17265,7 +17615,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -17293,7 +17643,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -17325,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -17353,7 +17703,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -17385,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -17413,7 +17763,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -17445,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -17473,7 +17823,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -17501,7 +17851,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -17529,7 +17879,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -17561,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -17593,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -17625,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -17657,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -17689,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -17717,7 +18067,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -17749,7 +18099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -17777,7 +18127,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -17809,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -17837,7 +18187,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -17869,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -17901,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -17933,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -17965,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -17997,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -18025,7 +18375,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -18053,7 +18403,7 @@
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -18085,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -18117,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -18149,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -18177,7 +18527,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -18209,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -18237,7 +18587,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -18269,7 +18619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -18301,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -18333,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -18361,7 +18711,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -18389,7 +18739,7 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -18421,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -18453,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -18481,7 +18831,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -18509,7 +18859,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -18541,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -18573,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -18601,7 +18951,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -18633,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -18661,7 +19011,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -18693,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -18725,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -18757,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -18789,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -18817,7 +19167,7 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -18845,7 +19195,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -18877,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -18905,7 +19255,7 @@
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -18937,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -18965,7 +19315,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -18997,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -19029,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -19057,7 +19407,7 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -19085,7 +19435,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -19117,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -19149,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -19177,7 +19527,7 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -19205,7 +19555,7 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -19233,7 +19583,7 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -19261,7 +19611,7 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -19289,7 +19639,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -19321,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -19349,7 +19699,7 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -19377,7 +19727,7 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -19405,7 +19755,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -19433,7 +19783,7 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -19461,7 +19811,7 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -19489,7 +19839,7 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -19517,7 +19867,7 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -19545,7 +19895,7 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>545</v>
       </c>
@@ -19573,7 +19923,7 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
@@ -19601,7 +19951,7 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>547</v>
       </c>
@@ -19629,7 +19979,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -19661,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -19689,7 +20039,7 @@
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -19717,7 +20067,7 @@
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>551</v>
       </c>
@@ -19745,7 +20095,7 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>552</v>
       </c>
@@ -19773,7 +20123,7 @@
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
@@ -19801,7 +20151,7 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>554</v>
       </c>
@@ -19829,7 +20179,7 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>555</v>
       </c>
@@ -19857,7 +20207,7 @@
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -19885,7 +20235,7 @@
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>557</v>
       </c>
@@ -19913,7 +20263,7 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>558</v>
       </c>
@@ -19941,7 +20291,7 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -19969,7 +20319,7 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -19997,7 +20347,7 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -20025,7 +20375,7 @@
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -20053,7 +20403,7 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -20081,7 +20431,7 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -20109,7 +20459,7 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -20137,7 +20487,7 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -20165,7 +20515,7 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -20193,7 +20543,7 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -20221,7 +20571,7 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -20249,7 +20599,7 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -20277,7 +20627,7 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -20305,7 +20655,7 @@
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -20333,7 +20683,7 @@
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -20361,7 +20711,7 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -20389,7 +20739,7 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -20417,7 +20767,7 @@
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -20445,7 +20795,7 @@
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -20473,7 +20823,7 @@
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -20501,7 +20851,7 @@
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -20529,7 +20879,7 @@
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -20557,7 +20907,7 @@
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -20585,7 +20935,7 @@
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>582</v>
       </c>
@@ -20613,7 +20963,7 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -20641,7 +20991,7 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -20669,7 +21019,7 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -20697,7 +21047,7 @@
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -20725,7 +21075,7 @@
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -20753,7 +21103,7 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -20781,7 +21131,7 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -20809,7 +21159,7 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -20837,7 +21187,7 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -20865,7 +21215,7 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -20893,7 +21243,7 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -20921,7 +21271,7 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -20949,7 +21299,7 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -20977,7 +21327,7 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -21005,7 +21355,7 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -21033,7 +21383,7 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -21061,7 +21411,7 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -21089,7 +21439,7 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -21117,7 +21467,7 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -21145,7 +21495,7 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -21173,7 +21523,7 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -21201,7 +21551,7 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -21229,7 +21579,7 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -21261,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -21293,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -21321,7 +21671,7 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -21349,7 +21699,7 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -21381,7 +21731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -21409,7 +21759,7 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -21441,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -21469,7 +21819,7 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -21501,7 +21851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -21529,7 +21879,7 @@
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -21557,7 +21907,7 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -21585,7 +21935,7 @@
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -21613,7 +21963,7 @@
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -21641,7 +21991,7 @@
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -21669,7 +22019,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -21701,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -21729,7 +22079,7 @@
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -21757,7 +22107,7 @@
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -21785,7 +22135,7 @@
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -21813,7 +22163,7 @@
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -21841,7 +22191,7 @@
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -21869,7 +22219,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -21901,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -21929,7 +22279,7 @@
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -21957,7 +22307,7 @@
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -21985,7 +22335,7 @@
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -22013,7 +22363,7 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -22041,7 +22391,7 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -22069,7 +22419,7 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -22097,7 +22447,7 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -22125,7 +22475,7 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -22153,7 +22503,7 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -22181,7 +22531,7 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -22209,7 +22559,7 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -22237,7 +22587,7 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -22265,7 +22615,7 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -22293,7 +22643,7 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -22321,7 +22671,7 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -22349,7 +22699,7 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -22377,7 +22727,7 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -22405,7 +22755,7 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -22433,7 +22783,7 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -22461,7 +22811,7 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -22489,7 +22839,7 @@
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -22517,7 +22867,7 @@
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -22545,7 +22895,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -22577,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>652</v>
       </c>
@@ -22605,7 +22955,7 @@
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -22633,7 +22983,7 @@
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>654</v>
       </c>
@@ -22661,7 +23011,7 @@
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>655</v>
       </c>
@@ -22689,7 +23039,7 @@
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>656</v>
       </c>
@@ -22717,7 +23067,7 @@
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>657</v>
       </c>
@@ -22745,7 +23095,7 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>658</v>
       </c>
@@ -22773,7 +23123,7 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>659</v>
       </c>
@@ -22801,7 +23151,7 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>660</v>
       </c>
@@ -22829,7 +23179,7 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>661</v>
       </c>
@@ -22857,7 +23207,7 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>662</v>
       </c>
@@ -22885,7 +23235,7 @@
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>663</v>
       </c>
@@ -22913,7 +23263,7 @@
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>664</v>
       </c>
@@ -22941,7 +23291,7 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>665</v>
       </c>
@@ -22969,7 +23319,7 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>666</v>
       </c>
@@ -22997,7 +23347,7 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -23025,7 +23375,7 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -23053,7 +23403,7 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>669</v>
       </c>
@@ -23081,7 +23431,7 @@
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>670</v>
       </c>
@@ -23109,7 +23459,7 @@
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>671</v>
       </c>
@@ -23137,7 +23487,7 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>672</v>
       </c>
@@ -23165,7 +23515,7 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>673</v>
       </c>
@@ -23193,7 +23543,7 @@
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>674</v>
       </c>
@@ -23221,7 +23571,7 @@
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>675</v>
       </c>
@@ -23249,7 +23599,7 @@
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>676</v>
       </c>
@@ -23277,7 +23627,7 @@
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -23305,7 +23655,7 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -23333,7 +23683,7 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>679</v>
       </c>
@@ -23361,7 +23711,7 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -23389,7 +23739,7 @@
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -23417,7 +23767,7 @@
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -23445,7 +23795,7 @@
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>683</v>
       </c>
@@ -23473,7 +23823,7 @@
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -23501,7 +23851,7 @@
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -23529,7 +23879,7 @@
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>686</v>
       </c>
@@ -23557,7 +23907,7 @@
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>687</v>
       </c>
@@ -23585,7 +23935,7 @@
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -23613,7 +23963,7 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -23645,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>690</v>
       </c>
@@ -23673,7 +24023,7 @@
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>691</v>
       </c>
@@ -23701,7 +24051,7 @@
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -23729,7 +24079,7 @@
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -23757,7 +24107,7 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>694</v>
       </c>
@@ -23785,7 +24135,7 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -23813,7 +24163,7 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>696</v>
       </c>
@@ -23841,7 +24191,7 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>697</v>
       </c>
@@ -23869,7 +24219,7 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -23897,7 +24247,7 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>699</v>
       </c>
@@ -23925,7 +24275,7 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>700</v>
       </c>
@@ -23953,7 +24303,7 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -23981,7 +24331,7 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -24009,7 +24359,7 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -24037,7 +24387,7 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -24065,7 +24415,7 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -24093,7 +24443,7 @@
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -24121,7 +24471,7 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>707</v>
       </c>
@@ -24149,7 +24499,7 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>708</v>
       </c>
@@ -24177,7 +24527,7 @@
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -24205,7 +24555,7 @@
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -24233,7 +24583,7 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -24265,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -24293,7 +24643,7 @@
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -24321,7 +24671,7 @@
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -24349,7 +24699,7 @@
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -24377,7 +24727,7 @@
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -24405,7 +24755,7 @@
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -24433,7 +24783,7 @@
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -24461,7 +24811,7 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -24489,7 +24839,7 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -24517,7 +24867,7 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -24545,7 +24895,7 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -24573,7 +24923,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -24605,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -24633,7 +24983,7 @@
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -24661,7 +25011,7 @@
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -24689,7 +25039,7 @@
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -24717,7 +25067,7 @@
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -24745,7 +25095,7 @@
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -24773,7 +25123,7 @@
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -24801,7 +25151,7 @@
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -24829,7 +25179,7 @@
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -24857,7 +25207,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -24889,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -24917,7 +25267,7 @@
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -24945,7 +25295,7 @@
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -24974,5 +25324,13 @@
       <c r="J737" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J737" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB97B20A-5DD9-E041-B0DF-74C6E806BA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EE804-294F-E043-B8A2-0FB86FEDF775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10460" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3814,7 +3814,7 @@
   <dimension ref="A1:J737"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A8" sqref="A8:A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4271,7 +4271,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4599,7 +4599,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -9243,7 +9243,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -10027,7 +10027,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10759,7 +10759,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -12243,7 +12243,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -12303,7 +12303,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -12423,7 +12423,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12783,7 +12783,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12843,7 +12843,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -13379,7 +13379,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -13839,7 +13839,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -14187,7 +14187,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -14247,7 +14247,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -14307,7 +14307,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -14543,7 +14543,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -14635,7 +14635,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -15231,7 +15231,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -15927,7 +15927,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -16283,7 +16283,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -17527,7 +17527,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -17703,7 +17703,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -18067,7 +18067,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -18127,7 +18127,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -18187,7 +18187,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -18859,7 +18859,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -18951,7 +18951,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -19011,7 +19011,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -19195,7 +19195,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -19315,7 +19315,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -19435,7 +19435,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -19639,7 +19639,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -19979,7 +19979,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -22019,7 +22019,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -22219,7 +22219,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -22895,7 +22895,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -23963,7 +23963,7 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -24583,7 +24583,7 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -24923,7 +24923,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -25207,7 +25207,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -25325,6 +25325,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J737" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Other Latin America"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EE804-294F-E043-B8A2-0FB86FEDF775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07A10B-2E4F-3F43-A279-B2E3D3A59199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3813,8 +3813,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A614"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A734" sqref="A5:A734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4271,7 +4271,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4599,7 +4599,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -9243,7 +9243,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -10027,7 +10027,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -10607,7 +10607,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10759,7 +10759,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -12243,7 +12243,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -12303,7 +12303,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -12423,7 +12423,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12783,7 +12783,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12843,7 +12843,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -13379,7 +13379,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -13839,7 +13839,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -14187,7 +14187,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -14247,7 +14247,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -14307,7 +14307,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -14543,7 +14543,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -14635,7 +14635,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -14863,7 +14863,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -15231,7 +15231,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -15927,7 +15927,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -16283,7 +16283,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -17527,7 +17527,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -17703,7 +17703,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -17879,7 +17879,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -18067,7 +18067,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -18127,7 +18127,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -18187,7 +18187,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -18859,7 +18859,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -18951,7 +18951,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -19011,7 +19011,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -19195,7 +19195,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -19315,7 +19315,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -19435,7 +19435,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -19639,7 +19639,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -19979,7 +19979,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -22019,7 +22019,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -22219,7 +22219,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -22895,7 +22895,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -23963,7 +23963,7 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
     </row>
-    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -24583,7 +24583,7 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
     </row>
-    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -24923,7 +24923,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -25207,7 +25207,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -25325,11 +25325,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J737" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Other Latin America"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="8">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/country-codes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07A10B-2E4F-3F43-A279-B2E3D3A59199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="3000" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$737</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5898" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3423,11 +3433,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3446,30 +3461,365 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A734" sqref="A5:A734"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3501,7 +3851,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3879,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3907,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3585,7 +3935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3617,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3649,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3713,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +4091,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3773,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +4151,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3829,7 +4179,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3893,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3921,7 +4271,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +4331,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4009,7 +4359,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4041,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4069,7 +4419,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4101,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4161,7 +4511,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4221,7 +4571,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4249,7 +4599,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4281,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4313,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4345,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4373,7 +4723,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4437,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4469,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4501,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4533,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4565,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4597,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4625,7 +4975,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4653,7 +5003,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4672,8 +5022,8 @@
       <c r="F40" t="s">
         <v>738</v>
       </c>
-      <c r="G40" t="s">
-        <v>738</v>
+      <c r="G40" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H40" t="s">
         <v>1072</v>
@@ -4685,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4717,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4749,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4777,7 +5127,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4796,8 +5146,8 @@
       <c r="F44" t="s">
         <v>738</v>
       </c>
-      <c r="G44" t="s">
-        <v>738</v>
+      <c r="G44" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="H44" t="s">
         <v>1075</v>
@@ -4809,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4841,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4873,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4905,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4933,7 +5283,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +5311,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4993,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5021,7 +5371,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5053,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5085,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5117,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5145,7 +5495,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5173,7 +5523,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5205,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5233,7 +5583,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5265,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5297,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5329,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5361,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5389,7 +5739,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5417,7 +5767,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5449,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5481,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5513,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5541,7 +5891,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5569,7 +5919,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5601,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5629,7 +5979,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5657,7 +6007,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5689,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5717,7 +6067,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5745,7 +6095,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5777,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5809,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5841,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5869,7 +6219,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5901,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5933,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5961,7 +6311,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5989,7 +6339,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6017,7 +6367,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6045,7 +6395,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6077,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6105,7 +6455,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6133,7 +6483,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6161,7 +6511,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6189,7 +6539,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6217,7 +6567,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6245,7 +6595,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6273,7 +6623,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6301,7 +6651,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6329,7 +6679,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6357,7 +6707,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6385,7 +6735,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6413,7 +6763,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6445,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6477,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6505,7 +6855,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6537,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6565,7 +6915,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6597,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6625,7 +6975,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6653,7 +7003,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6681,7 +7031,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6709,7 +7059,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6737,7 +7087,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6765,7 +7115,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6793,7 +7143,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6821,7 +7171,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6849,7 +7199,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6877,7 +7227,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6909,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6937,7 +7287,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6965,7 +7315,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6997,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7025,7 +7375,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7057,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7085,7 +7435,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7117,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7145,7 +7495,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7173,7 +7523,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7201,7 +7551,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7229,7 +7579,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7257,7 +7607,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7285,7 +7635,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7313,7 +7663,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7341,7 +7691,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7369,7 +7719,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7397,7 +7747,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7429,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7461,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7493,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7521,7 +7871,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7549,7 +7899,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7577,7 +7927,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7605,7 +7955,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7633,7 +7983,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7661,7 +8011,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7689,7 +8039,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7717,7 +8067,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7745,7 +8095,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7773,7 +8123,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7801,7 +8151,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7829,7 +8179,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7857,7 +8207,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7885,7 +8235,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7917,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7949,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7977,7 +8327,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -8005,7 +8355,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8037,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -8065,7 +8415,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -8093,7 +8443,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -8121,7 +8471,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -8149,7 +8499,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8181,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -8209,7 +8559,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -8237,7 +8587,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -8265,7 +8615,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -8293,7 +8643,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -8321,7 +8671,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -8349,7 +8699,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -8377,7 +8727,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -8405,7 +8755,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8437,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8469,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8497,7 +8847,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -8529,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8561,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -8589,7 +8939,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8608,8 +8958,8 @@
       <c r="F174" t="s">
         <v>738</v>
       </c>
-      <c r="G174" t="s">
-        <v>738</v>
+      <c r="G174" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H174" t="s">
         <v>943</v>
@@ -8621,7 +8971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -8653,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -8685,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8713,7 +9063,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8741,7 +9091,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8760,8 +9110,8 @@
       <c r="F179" t="s">
         <v>738</v>
       </c>
-      <c r="G179" t="s">
-        <v>738</v>
+      <c r="G179" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H179" t="s">
         <v>1072</v>
@@ -8773,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8805,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8837,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8865,7 +9215,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8893,7 +9243,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8925,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8957,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8985,7 +9335,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -9017,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -9045,7 +9395,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -9073,7 +9423,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -9105,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -9133,7 +9483,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -9165,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -9193,7 +9543,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -9221,7 +9571,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -9249,7 +9599,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -9277,7 +9627,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -9305,7 +9655,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -9333,7 +9683,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -9361,7 +9711,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -9389,7 +9739,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -9417,7 +9767,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -9445,7 +9795,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -9473,7 +9823,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -9505,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -9533,7 +9883,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -9561,7 +9911,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -9593,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -9621,7 +9971,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -9649,7 +9999,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9677,7 +10027,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -9709,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -9737,7 +10087,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -9769,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -9801,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9829,7 +10179,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -9857,7 +10207,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -9885,7 +10235,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -9913,7 +10263,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -9941,7 +10291,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -9969,7 +10319,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -9997,7 +10347,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -10025,7 +10375,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -10057,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -10089,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -10117,7 +10467,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -10145,7 +10495,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -10173,7 +10523,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -10201,7 +10551,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -10229,7 +10579,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -10257,7 +10607,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -10289,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -10321,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -10353,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -10381,7 +10731,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -10409,7 +10759,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -10441,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -10473,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -10505,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -10537,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -10565,7 +10915,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -10593,7 +10943,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -10621,7 +10971,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -10649,7 +10999,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -10677,7 +11027,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -10705,7 +11055,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -10733,7 +11083,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -10761,7 +11111,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -10789,7 +11139,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -10817,7 +11167,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -10836,8 +11186,8 @@
       <c r="F250" t="s">
         <v>963</v>
       </c>
-      <c r="G250" t="s">
-        <v>738</v>
+      <c r="G250" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H250" t="s">
         <v>943</v>
@@ -10849,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -10877,7 +11227,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -10905,7 +11255,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -10933,7 +11283,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -10961,7 +11311,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -10989,7 +11339,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -11017,7 +11367,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -11045,7 +11395,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -11077,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -11105,7 +11455,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -11137,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -11169,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -11197,7 +11547,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -11225,7 +11575,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -11253,7 +11603,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -11281,7 +11631,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -11309,7 +11659,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -11337,7 +11687,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -11365,7 +11715,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -11393,7 +11743,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -11421,7 +11771,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -11449,7 +11799,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -11477,7 +11827,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -11505,7 +11855,7 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -11533,7 +11883,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -11561,7 +11911,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -11593,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -11621,7 +11971,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -11653,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -11685,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -11717,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -11745,7 +12095,7 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -11773,7 +12123,7 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -11801,7 +12151,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -11833,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -11865,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -11893,7 +12243,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -11925,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -11953,7 +12303,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -11985,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -12004,8 +12354,8 @@
       <c r="F290" t="s">
         <v>738</v>
       </c>
-      <c r="G290" t="s">
-        <v>738</v>
+      <c r="G290" s="2" t="s">
+        <v>918</v>
       </c>
       <c r="H290" t="s">
         <v>943</v>
@@ -12017,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -12045,7 +12395,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -12073,7 +12423,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -12105,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -12133,7 +12483,7 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -12165,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -12197,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -12229,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -12261,7 +12611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -12293,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -12321,7 +12671,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -12349,7 +12699,7 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -12377,7 +12727,7 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -12405,7 +12755,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -12433,7 +12783,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -12465,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -12493,7 +12843,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -12525,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -12553,7 +12903,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -12581,7 +12931,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -12609,7 +12959,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -12637,7 +12987,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -12665,7 +13015,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -12693,7 +13043,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -12725,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -12757,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -12789,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -12821,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -12853,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -12881,7 +13231,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -12909,7 +13259,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -12941,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -12969,7 +13319,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -13001,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -13029,7 +13379,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -13061,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -13093,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -13125,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -13153,7 +13503,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -13185,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -13217,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -13245,7 +13595,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -13273,7 +13623,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -13305,7 +13655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -13337,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -13369,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -13401,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -13433,7 +13783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -13461,7 +13811,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -13489,7 +13839,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -13521,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -13553,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -13585,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -13617,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -13649,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -13681,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -13713,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -13745,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -13777,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -13809,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -13837,7 +14187,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -13869,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -13897,7 +14247,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -13929,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -13957,7 +14307,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -13989,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -14017,7 +14367,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -14049,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -14077,7 +14427,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -14105,7 +14455,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -14137,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -14165,7 +14515,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -14193,7 +14543,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -14225,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -14257,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -14285,7 +14635,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -14317,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -14345,7 +14695,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -14373,7 +14723,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -14401,7 +14751,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -14429,7 +14779,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -14457,7 +14807,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -14485,7 +14835,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -14513,7 +14863,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -14545,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -14573,7 +14923,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -14601,7 +14951,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -14629,7 +14979,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -14657,7 +15007,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -14685,7 +15035,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -14713,7 +15063,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -14741,7 +15091,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -14769,7 +15119,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -14797,7 +15147,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -14825,7 +15175,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -14853,7 +15203,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -14881,7 +15231,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -14913,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -14941,7 +15291,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -14969,7 +15319,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -14997,7 +15347,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -15025,7 +15375,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -15053,7 +15403,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -15081,7 +15431,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -15109,7 +15459,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -15137,7 +15487,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -15165,7 +15515,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -15193,7 +15543,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -15221,7 +15571,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -15249,7 +15599,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -15277,7 +15627,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -15309,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -15337,7 +15687,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -15365,7 +15715,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -15393,7 +15743,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -15425,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -15457,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -15476,8 +15826,8 @@
       <c r="F407" t="s">
         <v>738</v>
       </c>
-      <c r="G407" t="s">
-        <v>738</v>
+      <c r="G407" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="H407" t="s">
         <v>1079</v>
@@ -15489,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -15521,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -15549,7 +15899,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -15577,7 +15927,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -15609,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -15641,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -15669,7 +16019,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -15697,7 +16047,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -15725,7 +16075,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -15753,7 +16103,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -15781,7 +16131,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -15813,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -15845,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -15877,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -15905,7 +16255,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -15933,7 +16283,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -15965,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -15993,7 +16343,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -16025,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -16053,7 +16403,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -16085,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -16113,7 +16463,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -16141,7 +16491,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -16169,7 +16519,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -16197,7 +16547,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -16225,7 +16575,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -16253,7 +16603,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -16281,7 +16631,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -16309,7 +16659,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -16337,7 +16687,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -16365,7 +16715,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -16393,7 +16743,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -16421,7 +16771,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -16449,7 +16799,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -16477,7 +16827,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -16505,7 +16855,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -16533,7 +16883,7 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -16561,7 +16911,7 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -16589,7 +16939,7 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -16617,7 +16967,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -16645,7 +16995,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -16673,7 +17023,7 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -16701,7 +17051,7 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -16729,7 +17079,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -16757,7 +17107,7 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -16785,7 +17135,7 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -16813,7 +17163,7 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -16841,7 +17191,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -16869,7 +17219,7 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -16897,7 +17247,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -16925,7 +17275,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -16953,7 +17303,7 @@
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -16981,7 +17331,7 @@
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -17009,7 +17359,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -17037,7 +17387,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -17065,7 +17415,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -17093,7 +17443,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -17121,7 +17471,7 @@
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -17149,7 +17499,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -17177,7 +17527,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -17209,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -17237,7 +17587,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -17265,7 +17615,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -17293,7 +17643,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -17325,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -17353,7 +17703,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -17385,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -17413,7 +17763,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -17445,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -17473,7 +17823,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -17501,7 +17851,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -17529,7 +17879,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -17561,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -17593,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -17625,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -17657,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -17689,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -17717,7 +18067,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -17749,7 +18099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -17777,7 +18127,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -17809,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -17837,7 +18187,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -17869,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -17901,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -17933,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -17965,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -17997,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -18025,7 +18375,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -18053,7 +18403,7 @@
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -18085,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -18117,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -18149,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -18177,7 +18527,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -18209,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -18237,7 +18587,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -18269,7 +18619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -18301,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -18333,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -18361,7 +18711,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>505</v>
       </c>
@@ -18389,7 +18739,7 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -18421,7 +18771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
@@ -18453,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -18481,7 +18831,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>509</v>
       </c>
@@ -18509,7 +18859,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -18541,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -18573,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -18601,7 +18951,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -18633,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -18661,7 +19011,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -18693,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
@@ -18725,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
@@ -18757,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
@@ -18789,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
@@ -18817,7 +19167,7 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>520</v>
       </c>
@@ -18845,7 +19195,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
@@ -18877,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -18905,7 +19255,7 @@
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -18937,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -18965,7 +19315,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -18997,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -19029,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>527</v>
       </c>
@@ -19057,7 +19407,7 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>528</v>
       </c>
@@ -19085,7 +19435,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
@@ -19117,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
@@ -19149,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -19177,7 +19527,7 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -19205,7 +19555,7 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>533</v>
       </c>
@@ -19233,7 +19583,7 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>534</v>
       </c>
@@ -19261,7 +19611,7 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
@@ -19289,7 +19639,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
@@ -19321,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>537</v>
       </c>
@@ -19349,7 +19699,7 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
@@ -19377,7 +19727,7 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>539</v>
       </c>
@@ -19405,7 +19755,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>540</v>
       </c>
@@ -19433,7 +19783,7 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
@@ -19461,7 +19811,7 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>542</v>
       </c>
@@ -19489,7 +19839,7 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>543</v>
       </c>
@@ -19517,7 +19867,7 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -19545,7 +19895,7 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>545</v>
       </c>
@@ -19573,7 +19923,7 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
@@ -19601,7 +19951,7 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>547</v>
       </c>
@@ -19629,7 +19979,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
@@ -19661,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -19689,7 +20039,7 @@
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -19717,7 +20067,7 @@
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>551</v>
       </c>
@@ -19745,7 +20095,7 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>552</v>
       </c>
@@ -19773,7 +20123,7 @@
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
@@ -19801,7 +20151,7 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>554</v>
       </c>
@@ -19829,7 +20179,7 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>555</v>
       </c>
@@ -19857,7 +20207,7 @@
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
@@ -19885,7 +20235,7 @@
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>557</v>
       </c>
@@ -19913,7 +20263,7 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>558</v>
       </c>
@@ -19941,7 +20291,7 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -19969,7 +20319,7 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -19997,7 +20347,7 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>561</v>
       </c>
@@ -20025,7 +20375,7 @@
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -20053,7 +20403,7 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>563</v>
       </c>
@@ -20081,7 +20431,7 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -20109,7 +20459,7 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>565</v>
       </c>
@@ -20137,7 +20487,7 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -20165,7 +20515,7 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -20193,7 +20543,7 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
@@ -20221,7 +20571,7 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
@@ -20249,7 +20599,7 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -20277,7 +20627,7 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -20305,7 +20655,7 @@
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
@@ -20333,7 +20683,7 @@
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
@@ -20361,7 +20711,7 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>574</v>
       </c>
@@ -20389,7 +20739,7 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>575</v>
       </c>
@@ -20417,7 +20767,7 @@
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>576</v>
       </c>
@@ -20445,7 +20795,7 @@
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>577</v>
       </c>
@@ -20473,7 +20823,7 @@
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
@@ -20501,7 +20851,7 @@
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
@@ -20529,7 +20879,7 @@
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>580</v>
       </c>
@@ -20557,7 +20907,7 @@
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>581</v>
       </c>
@@ -20585,7 +20935,7 @@
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>582</v>
       </c>
@@ -20613,7 +20963,7 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>583</v>
       </c>
@@ -20641,7 +20991,7 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>584</v>
       </c>
@@ -20669,7 +21019,7 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>585</v>
       </c>
@@ -20697,7 +21047,7 @@
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -20725,7 +21075,7 @@
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>587</v>
       </c>
@@ -20753,7 +21103,7 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>588</v>
       </c>
@@ -20781,7 +21131,7 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
@@ -20809,7 +21159,7 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
@@ -20837,7 +21187,7 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>591</v>
       </c>
@@ -20865,7 +21215,7 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>592</v>
       </c>
@@ -20893,7 +21243,7 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>593</v>
       </c>
@@ -20921,7 +21271,7 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>594</v>
       </c>
@@ -20949,7 +21299,7 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>595</v>
       </c>
@@ -20977,7 +21327,7 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -21005,7 +21355,7 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -21033,7 +21383,7 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>598</v>
       </c>
@@ -21061,7 +21411,7 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>599</v>
       </c>
@@ -21089,7 +21439,7 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -21117,7 +21467,7 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -21145,7 +21495,7 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -21173,7 +21523,7 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>603</v>
       </c>
@@ -21201,7 +21551,7 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>604</v>
       </c>
@@ -21229,7 +21579,7 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>605</v>
       </c>
@@ -21261,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>606</v>
       </c>
@@ -21293,7 +21643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -21321,7 +21671,7 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -21349,7 +21699,7 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>609</v>
       </c>
@@ -21381,7 +21731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -21409,7 +21759,7 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -21441,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>612</v>
       </c>
@@ -21469,7 +21819,7 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>613</v>
       </c>
@@ -21501,7 +21851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>614</v>
       </c>
@@ -21529,7 +21879,7 @@
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>615</v>
       </c>
@@ -21557,7 +21907,7 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>616</v>
       </c>
@@ -21585,7 +21935,7 @@
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>617</v>
       </c>
@@ -21613,7 +21963,7 @@
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>618</v>
       </c>
@@ -21641,7 +21991,7 @@
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -21669,7 +22019,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -21701,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -21729,7 +22079,7 @@
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -21757,7 +22107,7 @@
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -21785,7 +22135,7 @@
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>624</v>
       </c>
@@ -21813,7 +22163,7 @@
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>625</v>
       </c>
@@ -21841,7 +22191,7 @@
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>626</v>
       </c>
@@ -21869,7 +22219,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>627</v>
       </c>
@@ -21901,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>628</v>
       </c>
@@ -21929,7 +22279,7 @@
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>629</v>
       </c>
@@ -21957,7 +22307,7 @@
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>630</v>
       </c>
@@ -21985,7 +22335,7 @@
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>631</v>
       </c>
@@ -22013,7 +22363,7 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>632</v>
       </c>
@@ -22041,7 +22391,7 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -22069,7 +22419,7 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -22097,7 +22447,7 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>635</v>
       </c>
@@ -22125,7 +22475,7 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>636</v>
       </c>
@@ -22153,7 +22503,7 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>637</v>
       </c>
@@ -22181,7 +22531,7 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>638</v>
       </c>
@@ -22209,7 +22559,7 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>639</v>
       </c>
@@ -22237,7 +22587,7 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>640</v>
       </c>
@@ -22265,7 +22615,7 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -22293,7 +22643,7 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>642</v>
       </c>
@@ -22321,7 +22671,7 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>643</v>
       </c>
@@ -22349,7 +22699,7 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>644</v>
       </c>
@@ -22377,7 +22727,7 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>645</v>
       </c>
@@ -22405,7 +22755,7 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>646</v>
       </c>
@@ -22433,7 +22783,7 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -22461,7 +22811,7 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -22489,7 +22839,7 @@
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>649</v>
       </c>
@@ -22517,7 +22867,7 @@
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>650</v>
       </c>
@@ -22545,7 +22895,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>651</v>
       </c>
@@ -22577,7 +22927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>652</v>
       </c>
@@ -22605,7 +22955,7 @@
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -22633,7 +22983,7 @@
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>654</v>
       </c>
@@ -22661,7 +23011,7 @@
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>655</v>
       </c>
@@ -22689,7 +23039,7 @@
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>656</v>
       </c>
@@ -22717,7 +23067,7 @@
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>657</v>
       </c>
@@ -22745,7 +23095,7 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>658</v>
       </c>
@@ -22773,7 +23123,7 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>659</v>
       </c>
@@ -22801,7 +23151,7 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>660</v>
       </c>
@@ -22829,7 +23179,7 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>661</v>
       </c>
@@ -22857,7 +23207,7 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>662</v>
       </c>
@@ -22885,7 +23235,7 @@
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>663</v>
       </c>
@@ -22913,7 +23263,7 @@
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>664</v>
       </c>
@@ -22941,7 +23291,7 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>665</v>
       </c>
@@ -22969,7 +23319,7 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>666</v>
       </c>
@@ -22997,7 +23347,7 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -23025,7 +23375,7 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -23053,7 +23403,7 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>669</v>
       </c>
@@ -23081,7 +23431,7 @@
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>670</v>
       </c>
@@ -23109,7 +23459,7 @@
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>671</v>
       </c>
@@ -23137,7 +23487,7 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>672</v>
       </c>
@@ -23165,7 +23515,7 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>673</v>
       </c>
@@ -23193,7 +23543,7 @@
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>674</v>
       </c>
@@ -23221,7 +23571,7 @@
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>675</v>
       </c>
@@ -23249,7 +23599,7 @@
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>676</v>
       </c>
@@ -23277,7 +23627,7 @@
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -23305,7 +23655,7 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -23333,7 +23683,7 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>679</v>
       </c>
@@ -23361,7 +23711,7 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -23389,7 +23739,7 @@
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -23417,7 +23767,7 @@
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -23445,7 +23795,7 @@
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>683</v>
       </c>
@@ -23473,7 +23823,7 @@
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -23501,7 +23851,7 @@
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -23529,7 +23879,7 @@
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>686</v>
       </c>
@@ -23557,7 +23907,7 @@
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>687</v>
       </c>
@@ -23585,7 +23935,7 @@
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -23613,7 +23963,7 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>689</v>
       </c>
@@ -23645,7 +23995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>690</v>
       </c>
@@ -23673,7 +24023,7 @@
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>691</v>
       </c>
@@ -23701,7 +24051,7 @@
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -23729,7 +24079,7 @@
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -23757,7 +24107,7 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>694</v>
       </c>
@@ -23785,7 +24135,7 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -23813,7 +24163,7 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>696</v>
       </c>
@@ -23841,7 +24191,7 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>697</v>
       </c>
@@ -23869,7 +24219,7 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -23897,7 +24247,7 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>699</v>
       </c>
@@ -23925,7 +24275,7 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>700</v>
       </c>
@@ -23953,7 +24303,7 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>701</v>
       </c>
@@ -23981,7 +24331,7 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -24009,7 +24359,7 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>703</v>
       </c>
@@ -24037,7 +24387,7 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>704</v>
       </c>
@@ -24065,7 +24415,7 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>705</v>
       </c>
@@ -24093,7 +24443,7 @@
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>706</v>
       </c>
@@ -24121,7 +24471,7 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>707</v>
       </c>
@@ -24149,7 +24499,7 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>708</v>
       </c>
@@ -24177,7 +24527,7 @@
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>709</v>
       </c>
@@ -24205,7 +24555,7 @@
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>710</v>
       </c>
@@ -24233,7 +24583,7 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>711</v>
       </c>
@@ -24265,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>712</v>
       </c>
@@ -24293,7 +24643,7 @@
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>713</v>
       </c>
@@ -24321,7 +24671,7 @@
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>714</v>
       </c>
@@ -24349,7 +24699,7 @@
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>715</v>
       </c>
@@ -24377,7 +24727,7 @@
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -24405,7 +24755,7 @@
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -24433,7 +24783,7 @@
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -24461,7 +24811,7 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -24489,7 +24839,7 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>720</v>
       </c>
@@ -24517,7 +24867,7 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>721</v>
       </c>
@@ -24545,7 +24895,7 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>722</v>
       </c>
@@ -24573,7 +24923,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>723</v>
       </c>
@@ -24605,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>724</v>
       </c>
@@ -24633,7 +24983,7 @@
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>725</v>
       </c>
@@ -24661,7 +25011,7 @@
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>726</v>
       </c>
@@ -24689,7 +25039,7 @@
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -24717,7 +25067,7 @@
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>728</v>
       </c>
@@ -24745,7 +25095,7 @@
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -24773,7 +25123,7 @@
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -24801,7 +25151,7 @@
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>731</v>
       </c>
@@ -24829,7 +25179,7 @@
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>732</v>
       </c>
@@ -24857,7 +25207,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>733</v>
       </c>
@@ -24889,7 +25239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>734</v>
       </c>
@@ -24917,7 +25267,7 @@
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>735</v>
       </c>
@@ -24945,7 +25295,7 @@
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>736</v>
       </c>
@@ -24974,5 +25324,13 @@
       <c r="J737" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J737" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rowaidamoshrif/Documents/GitHub/wid-world/data-input/country-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelestebanarias/Documents/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07A10B-2E4F-3F43-A279-B2E3D3A59199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470F0AA-00ED-2040-BE1F-0734D1A10AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="500" windowWidth="30240" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5897" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3813,8 +3813,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A734" sqref="A5:A734"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12354,9 +12354,7 @@
       <c r="F290" t="s">
         <v>738</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>918</v>
-      </c>
+      <c r="G290" s="2"/>
       <c r="H290" t="s">
         <v>943</v>
       </c>

--- a/data-input/country-codes/country-codes-core.xlsx
+++ b/data-input/country-codes/country-codes-core.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelestebanarias/Documents/GitHub/wid-world/data-input/country-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470F0AA-00ED-2040-BE1F-0734D1A10AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BBDBAC-B5C3-DB4C-B0F8-F67CCC89F421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5897" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1135">
   <si>
     <t>code</t>
   </si>
@@ -3445,12 +3445,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3472,10 +3484,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3813,8 +3827,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G290" sqref="G290"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8803,9 +8817,7 @@
       <c r="E169" t="s">
         <v>962</v>
       </c>
-      <c r="F169" t="s">
-        <v>963</v>
-      </c>
+      <c r="F169" s="4"/>
       <c r="G169" t="s">
         <v>738</v>
       </c>
@@ -9019,9 +9031,7 @@
       <c r="E176" t="s">
         <v>962</v>
       </c>
-      <c r="F176" t="s">
-        <v>963</v>
-      </c>
+      <c r="F176" s="4"/>
       <c r="G176" t="s">
         <v>918</v>
       </c>
@@ -10655,9 +10665,7 @@
       <c r="E232" t="s">
         <v>962</v>
       </c>
-      <c r="F232" t="s">
-        <v>963</v>
-      </c>
+      <c r="F232" s="4"/>
       <c r="G232" t="s">
         <v>918</v>
       </c>
@@ -12348,7 +12356,7 @@
       <c r="D290" t="s">
         <v>943</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="3" t="s">
         <v>951</v>
       </c>
       <c r="F290" t="s">
@@ -13885,9 +13893,7 @@
       <c r="E341" t="s">
         <v>1112</v>
       </c>
-      <c r="F341" t="s">
-        <v>963</v>
-      </c>
+      <c r="F341" s="4"/>
       <c r="G341" t="s">
         <v>919</v>
       </c>
@@ -15827,8 +15833,8 @@
       <c r="G407" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="H407" t="s">
-        <v>1079</v>
+      <c r="H407" s="3" t="s">
+        <v>1072</v>
       </c>
       <c r="I407" s="1">
         <v>1</v>
